--- a/pyRacing/driversAnalysis.xlsx
+++ b/pyRacing/driversAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madma\Documents\zDrugMaker\pyRacing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7444BEA1-F80B-45A0-82ED-B9A137360A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB61F9C6-3F2E-4B06-9E20-5E23D8E9A316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D22FFC66-2795-49FC-94EC-23153A58B245}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
   <si>
     <t>Marta</t>
   </si>
@@ -95,18 +95,12 @@
     <t>Sero</t>
   </si>
   <si>
-    <t>Tonin</t>
-  </si>
-  <si>
     <t>SHT</t>
   </si>
   <si>
     <t>Dopa</t>
   </si>
   <si>
-    <t>Mina</t>
-  </si>
-  <si>
     <t>DOP</t>
   </si>
   <si>
@@ -249,6 +243,117 @@
   </si>
   <si>
     <t>Stamina</t>
+  </si>
+  <si>
+    <t>ADR</t>
+  </si>
+  <si>
+    <t>Adri</t>
+  </si>
+  <si>
+    <t>Nelline</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>Ned</t>
+  </si>
+  <si>
+    <t>Pinephrine</t>
+  </si>
+  <si>
+    <t>NDR</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Vlad</t>
+  </si>
+  <si>
+    <t>Putin</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>DON</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Schnitz</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>SCN</t>
+  </si>
+  <si>
+    <t>Sidon</t>
+  </si>
+  <si>
+    <t>Mipha</t>
+  </si>
+  <si>
+    <t>MIP</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>Lukasz</t>
+  </si>
+  <si>
+    <t>Dlugosz</t>
+  </si>
+  <si>
+    <t>LUK</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>Olds</t>
+  </si>
+  <si>
+    <t>Shaitz</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>Silenieks</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Zelda</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>DRIVR#</t>
   </si>
 </sst>
 </file>
@@ -366,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -389,11 +494,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,6 +618,45 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,12 +1045,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$21</c:f>
+              <c:f>Sheet1!$O$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MED</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -868,34 +1097,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$21:$W$21</c:f>
+              <c:f>Sheet1!$P$37:$W$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2168,16 +2373,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>235323</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>187298</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>385001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>246528</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>86445</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2205,15 +2410,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>258535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>511468</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>457039</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>269741</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2560,53 +2765,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A66D4-2B70-4242-B1E5-FED50C7B69CF}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="11"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
       </c>
       <c r="O1" t="str">
         <f>C1</f>
@@ -2617,27 +2830,27 @@
         <v>Accel</v>
       </c>
       <c r="Q1" t="str">
-        <f t="shared" ref="Q1:Q12" si="0">F1</f>
+        <f t="shared" ref="Q1:Q4" si="0">F1</f>
         <v>DragCoeff</v>
       </c>
       <c r="R1" t="str">
-        <f t="shared" ref="R1:R12" si="1">G1</f>
+        <f t="shared" ref="R1:R4" si="1">G1</f>
         <v>DownforceCoeff</v>
       </c>
       <c r="S1" t="str">
-        <f t="shared" ref="S1:S12" si="2">H1</f>
+        <f t="shared" ref="S1:S4" si="2">H1</f>
         <v>Cornering</v>
       </c>
       <c r="T1" t="str">
-        <f t="shared" ref="T1:T12" si="3">I1</f>
+        <f t="shared" ref="T1:T4" si="3">I1</f>
         <v>Overtake</v>
       </c>
       <c r="U1" t="str">
-        <f t="shared" ref="U1:U12" si="4">J1</f>
+        <f t="shared" ref="U1:U4" si="4">J1</f>
         <v>Consistency</v>
       </c>
       <c r="V1" t="str">
-        <f t="shared" ref="V1:V12" si="5">K1</f>
+        <f t="shared" ref="V1:V4" si="5">K1</f>
         <v>Defending</v>
       </c>
       <c r="W1" t="str">
@@ -2646,48 +2859,54 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="22">
         <v>340</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="23">
         <v>68</v>
       </c>
-      <c r="F2">
-        <v>70</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="23">
+        <v>70</v>
+      </c>
+      <c r="G2" s="23">
         <v>90</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="22">
         <v>71</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="22">
         <v>77</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="22">
         <v>80</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="22">
         <v>80</v>
       </c>
-      <c r="L2">
-        <v>70</v>
+      <c r="L2" s="29">
+        <v>70</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
       </c>
       <c r="O2" t="str">
         <f>C2</f>
         <v>VOH</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P12" si="6">E2</f>
+        <f t="shared" ref="P2:P4" si="6">E2</f>
         <v>68</v>
       </c>
       <c r="Q2">
@@ -2715,49 +2934,55 @@
         <v>80</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W12" si="7">L2</f>
+        <f t="shared" ref="W2:W4" si="7">L2</f>
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="22">
         <v>350</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="23">
         <v>68</v>
       </c>
-      <c r="F3">
-        <v>70</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="23">
+        <v>70</v>
+      </c>
+      <c r="G3" s="23">
         <v>90</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="22">
         <v>71</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="22">
         <v>54</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="22">
         <v>60</v>
       </c>
-      <c r="K3">
-        <v>70</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="22">
+        <v>70</v>
+      </c>
+      <c r="L3" s="29">
         <v>65</v>
       </c>
+      <c r="M3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O21" si="8">C3</f>
+        <f t="shared" ref="O3:O4" si="8">C3</f>
         <v>VOV</v>
       </c>
       <c r="P3">
@@ -2794,41 +3019,44 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="22">
         <v>349</v>
       </c>
-      <c r="E4">
-        <v>71</v>
-      </c>
-      <c r="F4">
-        <v>65</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="23">
+        <v>68</v>
+      </c>
+      <c r="F4" s="23">
+        <v>70</v>
+      </c>
+      <c r="G4" s="23">
+        <v>90</v>
+      </c>
+      <c r="H4" s="22">
+        <v>80</v>
+      </c>
+      <c r="I4" s="22">
+        <v>54</v>
+      </c>
+      <c r="J4" s="22">
+        <v>87</v>
+      </c>
+      <c r="K4" s="22">
+        <v>56</v>
+      </c>
+      <c r="L4" s="29">
         <v>78</v>
       </c>
-      <c r="H4">
-        <v>80</v>
-      </c>
-      <c r="I4">
-        <v>54</v>
-      </c>
-      <c r="J4">
-        <v>87</v>
-      </c>
-      <c r="K4">
-        <v>56</v>
-      </c>
-      <c r="L4">
-        <v>78</v>
+      <c r="M4" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="8"/>
@@ -2836,15 +3064,15 @@
       </c>
       <c r="P4">
         <f t="shared" si="6"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="S4">
         <f t="shared" si="2"/>
@@ -2868,1261 +3096,2328 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>352</v>
-      </c>
-      <c r="E5">
-        <v>71</v>
-      </c>
-      <c r="F5">
-        <v>65</v>
-      </c>
-      <c r="G5">
-        <v>78</v>
-      </c>
-      <c r="H5">
-        <v>61</v>
-      </c>
-      <c r="I5">
-        <v>55</v>
-      </c>
-      <c r="J5">
-        <v>66</v>
-      </c>
-      <c r="K5">
-        <v>70</v>
-      </c>
-      <c r="L5">
-        <v>50</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="8"/>
-        <v>TON</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="7"/>
-        <v>50</v>
+      <c r="A5" s="28"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="22">
         <v>390</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="23">
         <v>73</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="23">
         <v>78</v>
       </c>
-      <c r="G6">
-        <v>70</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="23">
+        <v>70</v>
+      </c>
+      <c r="H6" s="22">
         <v>60</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="22">
         <v>80</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="22">
         <v>51</v>
       </c>
-      <c r="K6">
-        <v>70</v>
-      </c>
-      <c r="L6">
-        <v>70</v>
+      <c r="K6" s="22">
+        <v>70</v>
+      </c>
+      <c r="L6" s="29">
+        <v>70</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="O6:O18" si="9">C6</f>
         <v>SPD</v>
       </c>
       <c r="P6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P6:P18" si="10">E6</f>
         <v>73</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q6:Q18" si="11">F6</f>
         <v>78</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R6:R18" si="12">G6</f>
         <v>70</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S6:S18" si="13">H6</f>
         <v>60</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T6:T18" si="14">I6</f>
         <v>80</v>
       </c>
       <c r="U6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U6:U18" si="15">J6</f>
         <v>51</v>
       </c>
       <c r="V6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="V6:V18" si="16">K6</f>
         <v>70</v>
       </c>
       <c r="W6">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="W6:W18" si="17">L6</f>
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="22">
         <v>370</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="23">
         <v>73</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="23">
         <v>78</v>
       </c>
-      <c r="G7">
-        <v>70</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="23">
+        <v>70</v>
+      </c>
+      <c r="H7" s="22">
         <v>60</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="22">
         <v>75</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="22">
         <v>52</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="22">
         <v>55</v>
       </c>
-      <c r="L7">
-        <v>70</v>
+      <c r="L7" s="29">
+        <v>70</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>DIK</v>
       </c>
       <c r="P7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="U7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="V7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="W7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="22">
+        <v>375</v>
+      </c>
+      <c r="E8" s="23">
+        <v>73</v>
+      </c>
+      <c r="F8" s="23">
+        <v>78</v>
+      </c>
+      <c r="G8" s="23">
+        <v>70</v>
+      </c>
+      <c r="H8" s="22">
+        <v>71</v>
+      </c>
+      <c r="I8" s="22">
+        <v>55</v>
+      </c>
+      <c r="J8" s="22">
+        <v>70</v>
+      </c>
+      <c r="K8" s="22">
+        <v>70</v>
+      </c>
+      <c r="L8" s="29">
+        <v>75</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="9"/>
+        <v>MIN</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="13"/>
+        <v>71</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D10" s="22">
+        <v>355</v>
+      </c>
+      <c r="E10" s="23">
+        <v>74</v>
+      </c>
+      <c r="F10" s="23">
+        <v>62</v>
+      </c>
+      <c r="G10" s="23">
+        <v>75</v>
+      </c>
+      <c r="H10" s="22">
+        <v>75</v>
+      </c>
+      <c r="I10" s="22">
+        <v>54</v>
+      </c>
+      <c r="J10" s="22">
+        <v>85</v>
+      </c>
+      <c r="K10" s="22">
+        <v>67</v>
+      </c>
+      <c r="L10" s="29">
+        <v>75</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="9"/>
+        <v>SHT</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="B11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="22">
+        <v>352</v>
+      </c>
+      <c r="E11" s="23">
+        <v>74</v>
+      </c>
+      <c r="F11" s="23">
+        <v>62</v>
+      </c>
+      <c r="G11" s="23">
+        <v>75</v>
+      </c>
+      <c r="H11" s="22">
+        <v>73</v>
+      </c>
+      <c r="I11" s="22">
+        <v>88</v>
+      </c>
+      <c r="J11" s="22">
+        <v>53</v>
+      </c>
+      <c r="K11" s="22">
+        <v>62</v>
+      </c>
+      <c r="L11" s="29">
+        <v>75</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="9"/>
+        <v>DOP</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="13"/>
+        <v>73</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="15"/>
+        <v>53</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="22">
+        <v>365</v>
+      </c>
+      <c r="E13" s="23">
+        <v>74</v>
+      </c>
+      <c r="F13" s="23">
+        <v>62</v>
+      </c>
+      <c r="G13" s="23">
+        <v>75</v>
+      </c>
+      <c r="H13" s="22">
+        <v>70</v>
+      </c>
+      <c r="I13" s="22">
+        <v>68</v>
+      </c>
+      <c r="J13" s="22">
+        <v>60</v>
+      </c>
+      <c r="K13" s="22">
+        <v>58</v>
+      </c>
+      <c r="L13" s="29">
+        <v>79</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="9"/>
+        <v>NDR</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="17"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="22">
+        <v>365</v>
+      </c>
+      <c r="E14" s="23">
+        <v>79</v>
+      </c>
+      <c r="F14" s="23">
+        <v>75</v>
+      </c>
+      <c r="G14" s="23">
+        <v>70</v>
+      </c>
+      <c r="H14" s="22">
+        <v>71</v>
+      </c>
+      <c r="I14" s="22">
+        <v>53</v>
+      </c>
+      <c r="J14" s="22">
+        <v>95</v>
+      </c>
+      <c r="K14" s="22">
+        <v>80</v>
+      </c>
+      <c r="L14" s="29">
+        <v>60</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="9"/>
+        <v>ELT</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="13"/>
+        <v>71</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="14"/>
+        <v>53</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="15"/>
+        <v>95</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="22">
+        <v>382</v>
+      </c>
+      <c r="E15" s="23">
+        <v>79</v>
+      </c>
+      <c r="F15" s="23">
+        <v>75</v>
+      </c>
+      <c r="G15" s="23">
+        <v>70</v>
+      </c>
+      <c r="H15" s="22">
+        <v>71</v>
+      </c>
+      <c r="I15" s="22">
+        <v>53</v>
+      </c>
+      <c r="J15" s="22">
+        <v>50</v>
+      </c>
+      <c r="K15" s="22">
+        <v>50</v>
+      </c>
+      <c r="L15" s="29">
+        <v>90</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="9"/>
+        <v>ATH</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="13"/>
+        <v>71</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="14"/>
+        <v>53</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="22">
+        <v>360</v>
+      </c>
+      <c r="E16" s="23">
+        <v>79</v>
+      </c>
+      <c r="F16" s="23">
+        <v>75</v>
+      </c>
+      <c r="G16" s="23">
+        <v>70</v>
+      </c>
+      <c r="H16" s="22">
+        <v>66</v>
+      </c>
+      <c r="I16" s="22">
+        <v>95</v>
+      </c>
+      <c r="J16" s="22">
+        <v>70</v>
+      </c>
+      <c r="K16" s="22">
+        <v>90</v>
+      </c>
+      <c r="L16" s="29">
+        <v>90</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="9"/>
+        <v>ALC</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="14"/>
+        <v>95</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="22">
+        <v>348</v>
+      </c>
+      <c r="E17" s="23">
+        <v>79</v>
+      </c>
+      <c r="F17" s="23">
+        <v>75</v>
+      </c>
+      <c r="G17" s="23">
+        <v>70</v>
+      </c>
+      <c r="H17" s="22">
+        <v>65</v>
+      </c>
+      <c r="I17" s="22">
+        <v>75</v>
+      </c>
+      <c r="J17" s="22">
+        <v>52</v>
+      </c>
+      <c r="K17" s="22">
+        <v>95</v>
+      </c>
+      <c r="L17" s="29">
+        <v>51</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="9"/>
+        <v>VAN</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="13"/>
+        <v>65</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="16"/>
+        <v>95</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="17"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="22">
+        <v>356</v>
+      </c>
+      <c r="E18" s="23">
+        <v>80</v>
+      </c>
+      <c r="F18" s="23">
+        <v>71</v>
+      </c>
+      <c r="G18" s="23">
+        <v>76</v>
+      </c>
+      <c r="H18" s="22">
+        <v>79</v>
+      </c>
+      <c r="I18" s="22">
+        <v>70</v>
+      </c>
+      <c r="J18" s="22">
+        <v>59</v>
+      </c>
+      <c r="K18" s="22">
+        <v>80</v>
+      </c>
+      <c r="L18" s="29">
+        <v>60</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="9"/>
+        <v>JOJ</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="13"/>
+        <v>79</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="15"/>
+        <v>59</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="22">
+        <v>375</v>
+      </c>
+      <c r="E19" s="23">
+        <v>80</v>
+      </c>
+      <c r="F19" s="23">
+        <v>71</v>
+      </c>
+      <c r="G19" s="23">
+        <v>76</v>
+      </c>
+      <c r="H19" s="22">
+        <v>75</v>
+      </c>
+      <c r="I19" s="22">
+        <v>85</v>
+      </c>
+      <c r="J19" s="22">
+        <v>72</v>
+      </c>
+      <c r="K19" s="22">
+        <v>70</v>
+      </c>
+      <c r="L19" s="29">
+        <v>65</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" ref="O19:O40" si="18">C19</f>
+        <v>ZOA</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P40" si="19">E19</f>
+        <v>80</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q40" si="20">F19</f>
+        <v>71</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R40" si="21">G19</f>
+        <v>76</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S40" si="22">H19</f>
+        <v>75</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T40" si="23">I19</f>
+        <v>85</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:U40" si="24">J19</f>
+        <v>72</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19:V40" si="25">K19</f>
+        <v>70</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19:W40" si="26">L19</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23">
+        <v>80</v>
+      </c>
+      <c r="F20" s="23">
+        <v>71</v>
+      </c>
+      <c r="G20" s="23">
+        <v>76</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23">
+        <v>80</v>
+      </c>
+      <c r="F21" s="23">
+        <v>71</v>
+      </c>
+      <c r="G21" s="23">
+        <v>76</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="22">
+        <v>333</v>
+      </c>
+      <c r="E22" s="23">
+        <v>71</v>
+      </c>
+      <c r="F22" s="23">
+        <v>65</v>
+      </c>
+      <c r="G22" s="23">
+        <v>78</v>
+      </c>
+      <c r="H22" s="22">
+        <v>55</v>
+      </c>
+      <c r="I22" s="22">
+        <v>70</v>
+      </c>
+      <c r="J22" s="22">
+        <v>62</v>
+      </c>
+      <c r="K22" s="22">
+        <v>66</v>
+      </c>
+      <c r="L22" s="29">
+        <v>80</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22">
+        <v>11</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="18"/>
+        <v>PUT</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="19"/>
+        <v>71</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="22"/>
+        <v>55</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="23"/>
+        <v>70</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="24"/>
+        <v>62</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="26"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="22">
+        <v>365</v>
+      </c>
+      <c r="E23" s="23">
+        <v>71</v>
+      </c>
+      <c r="F23" s="23">
+        <v>65</v>
+      </c>
+      <c r="G23" s="23">
+        <v>78</v>
+      </c>
+      <c r="H23" s="22">
+        <v>75</v>
+      </c>
+      <c r="I23" s="22">
+        <v>95</v>
+      </c>
+      <c r="J23" s="22">
+        <v>72</v>
+      </c>
+      <c r="K23" s="22">
+        <v>70</v>
+      </c>
+      <c r="L23" s="29">
+        <v>75</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N23">
+        <v>12</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="18"/>
+        <v>DON</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>71</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="23"/>
+        <v>95</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="26"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="22">
+        <v>345</v>
+      </c>
+      <c r="E26" s="23">
+        <v>69</v>
+      </c>
+      <c r="F26" s="23">
+        <v>70</v>
+      </c>
+      <c r="G26" s="23">
+        <v>72</v>
+      </c>
+      <c r="H26" s="22">
+        <v>66</v>
+      </c>
+      <c r="I26" s="22">
+        <v>50</v>
+      </c>
+      <c r="J26" s="22">
+        <v>70</v>
+      </c>
+      <c r="K26" s="22">
+        <v>85</v>
+      </c>
+      <c r="L26" s="29">
+        <v>50</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26">
+        <v>13</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="18"/>
+        <v>BAH</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="19"/>
+        <v>69</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="21"/>
+        <v>72</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="22"/>
+        <v>66</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="22">
+        <v>371</v>
+      </c>
+      <c r="E27" s="23">
+        <v>74</v>
+      </c>
+      <c r="F27" s="23">
+        <v>62</v>
+      </c>
+      <c r="G27" s="23">
+        <v>75</v>
+      </c>
+      <c r="H27" s="22">
+        <v>71</v>
+      </c>
+      <c r="I27" s="22">
+        <v>72</v>
+      </c>
+      <c r="J27" s="22">
+        <v>61</v>
+      </c>
+      <c r="K27" s="22">
+        <v>71</v>
+      </c>
+      <c r="L27" s="29">
+        <v>79</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>14</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="18"/>
+        <v>ADR</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="19"/>
+        <v>74</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="20"/>
+        <v>62</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="23"/>
+        <v>72</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="24"/>
+        <v>61</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="25"/>
+        <v>71</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="26"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23">
+        <v>69</v>
+      </c>
+      <c r="F28" s="23">
+        <v>70</v>
+      </c>
+      <c r="G28" s="23">
+        <v>72</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23">
+        <v>69</v>
+      </c>
+      <c r="F29" s="23">
+        <v>70</v>
+      </c>
+      <c r="G29" s="23">
+        <v>72</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="22">
+        <v>378</v>
+      </c>
+      <c r="E30" s="23">
+        <v>75</v>
+      </c>
+      <c r="F30" s="23">
+        <v>72</v>
+      </c>
+      <c r="G30" s="23">
+        <v>78</v>
+      </c>
+      <c r="H30" s="22">
+        <v>61</v>
+      </c>
+      <c r="I30" s="22">
+        <v>70</v>
+      </c>
+      <c r="J30" s="22">
+        <v>75</v>
+      </c>
+      <c r="K30" s="22">
+        <v>70</v>
+      </c>
+      <c r="L30" s="29">
+        <v>70</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30">
+        <v>15</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="18"/>
+        <v>SCH</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="19"/>
+        <v>75</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="22"/>
+        <v>61</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="23"/>
+        <v>70</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="22">
+        <v>366</v>
+      </c>
+      <c r="E31" s="23">
+        <v>75</v>
+      </c>
+      <c r="F31" s="23">
+        <v>72</v>
+      </c>
+      <c r="G31" s="23">
+        <v>78</v>
+      </c>
+      <c r="H31" s="22">
+        <v>67</v>
+      </c>
+      <c r="I31" s="22">
+        <v>70</v>
+      </c>
+      <c r="J31" s="22">
+        <v>50</v>
+      </c>
+      <c r="K31" s="22">
+        <v>70</v>
+      </c>
+      <c r="L31" s="29">
+        <v>70</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="N31">
+        <v>16</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="18"/>
+        <v>BTZ</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="19"/>
+        <v>75</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="22"/>
+        <v>67</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="23"/>
+        <v>70</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="22">
+        <v>368</v>
+      </c>
+      <c r="E32" s="23">
+        <v>75</v>
+      </c>
+      <c r="F32" s="23">
+        <v>72</v>
+      </c>
+      <c r="G32" s="23">
+        <v>78</v>
+      </c>
+      <c r="H32" s="22">
+        <v>70</v>
+      </c>
+      <c r="I32" s="22">
+        <v>60</v>
+      </c>
+      <c r="J32" s="22">
+        <v>60</v>
+      </c>
+      <c r="K32" s="22">
+        <v>78</v>
+      </c>
+      <c r="L32" s="29">
+        <v>78</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="18"/>
+        <v>SCN</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="19"/>
+        <v>75</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="23"/>
+        <v>60</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="25"/>
+        <v>78</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="26"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23">
+        <v>75</v>
+      </c>
+      <c r="F33" s="23">
+        <v>72</v>
+      </c>
+      <c r="G33" s="23">
+        <v>78</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="22">
         <v>355</v>
       </c>
-      <c r="E8">
-        <v>74</v>
-      </c>
-      <c r="F8">
+      <c r="E34" s="23">
+        <v>73</v>
+      </c>
+      <c r="F34" s="23">
+        <v>71</v>
+      </c>
+      <c r="G34" s="23">
+        <v>70</v>
+      </c>
+      <c r="H34" s="22">
+        <v>70</v>
+      </c>
+      <c r="I34" s="22">
+        <v>54</v>
+      </c>
+      <c r="J34" s="22">
+        <v>70</v>
+      </c>
+      <c r="K34" s="22">
+        <v>87</v>
+      </c>
+      <c r="L34" s="29">
+        <v>50</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34">
+        <v>17</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="18"/>
+        <v>RUA</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="19"/>
+        <v>73</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="23"/>
+        <v>54</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="25"/>
+        <v>87</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="22">
+        <v>366</v>
+      </c>
+      <c r="E35" s="23">
+        <v>73</v>
+      </c>
+      <c r="F35" s="23">
+        <v>71</v>
+      </c>
+      <c r="G35" s="23">
+        <v>70</v>
+      </c>
+      <c r="H35" s="22">
+        <v>70</v>
+      </c>
+      <c r="I35" s="22">
+        <v>54</v>
+      </c>
+      <c r="J35" s="22">
+        <v>50</v>
+      </c>
+      <c r="K35" s="22">
+        <v>87</v>
+      </c>
+      <c r="L35" s="29">
+        <v>70</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N35">
+        <v>18</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="18"/>
+        <v>MED</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>73</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="23"/>
+        <v>54</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="25"/>
+        <v>87</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="22">
+        <v>370</v>
+      </c>
+      <c r="E36" s="23">
+        <v>73</v>
+      </c>
+      <c r="F36" s="23">
+        <v>71</v>
+      </c>
+      <c r="G36" s="23">
+        <v>70</v>
+      </c>
+      <c r="H36" s="22">
+        <v>68</v>
+      </c>
+      <c r="I36" s="22">
+        <v>72</v>
+      </c>
+      <c r="J36" s="22">
+        <v>65</v>
+      </c>
+      <c r="K36" s="22">
+        <v>70</v>
+      </c>
+      <c r="L36" s="29">
+        <v>75</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="18"/>
+        <v>MIP</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>73</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="22"/>
+        <v>68</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="23"/>
+        <v>72</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="24"/>
+        <v>65</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="26"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23">
+        <v>73</v>
+      </c>
+      <c r="F37" s="23">
+        <v>71</v>
+      </c>
+      <c r="G37" s="23">
+        <v>70</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="22">
+        <v>352</v>
+      </c>
+      <c r="E38" s="23">
+        <v>71</v>
+      </c>
+      <c r="F38" s="23">
+        <v>65</v>
+      </c>
+      <c r="G38" s="23">
+        <v>78</v>
+      </c>
+      <c r="H38" s="22">
+        <v>61</v>
+      </c>
+      <c r="I38" s="22">
+        <v>55</v>
+      </c>
+      <c r="J38" s="22">
+        <v>66</v>
+      </c>
+      <c r="K38" s="22">
+        <v>70</v>
+      </c>
+      <c r="L38" s="29">
+        <v>50</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N38">
+        <v>19</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="18"/>
+        <v>TON</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="19"/>
+        <v>71</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="22"/>
+        <v>61</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="24"/>
+        <v>66</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="22">
+        <v>388</v>
+      </c>
+      <c r="E39" s="23">
+        <v>71</v>
+      </c>
+      <c r="F39" s="23">
+        <v>65</v>
+      </c>
+      <c r="G39" s="23">
+        <v>78</v>
+      </c>
+      <c r="H39" s="22">
+        <v>79</v>
+      </c>
+      <c r="I39" s="22">
+        <v>75</v>
+      </c>
+      <c r="J39" s="22">
+        <v>80</v>
+      </c>
+      <c r="K39" s="22">
+        <v>55</v>
+      </c>
+      <c r="L39" s="29">
+        <v>50</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39">
+        <v>20</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="18"/>
+        <v>LUK</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="19"/>
+        <v>71</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="22"/>
+        <v>79</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="23"/>
+        <v>75</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="25"/>
+        <v>55</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="22">
+        <v>355</v>
+      </c>
+      <c r="E40" s="23">
+        <v>71</v>
+      </c>
+      <c r="F40" s="23">
+        <v>65</v>
+      </c>
+      <c r="G40" s="23">
+        <v>78</v>
+      </c>
+      <c r="H40" s="22">
+        <v>78</v>
+      </c>
+      <c r="I40" s="22">
+        <v>68</v>
+      </c>
+      <c r="J40" s="22">
+        <v>68</v>
+      </c>
+      <c r="K40" s="22">
+        <v>68</v>
+      </c>
+      <c r="L40" s="29">
+        <v>70</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="18"/>
+        <v>BRN</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="19"/>
+        <v>71</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="23"/>
+        <v>68</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="24"/>
+        <v>68</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G8">
-        <v>75</v>
-      </c>
-      <c r="H8">
-        <v>75</v>
-      </c>
-      <c r="I8">
-        <v>54</v>
-      </c>
-      <c r="J8">
-        <v>85</v>
-      </c>
-      <c r="K8">
+      <c r="G42" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L8">
-        <v>75</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="8"/>
-        <v>SHT</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>352</v>
-      </c>
-      <c r="E9">
-        <v>74</v>
-      </c>
-      <c r="F9">
-        <v>62</v>
-      </c>
-      <c r="G9">
-        <v>75</v>
-      </c>
-      <c r="H9">
-        <v>73</v>
-      </c>
-      <c r="I9">
-        <v>88</v>
-      </c>
-      <c r="J9">
-        <v>53</v>
-      </c>
-      <c r="K9">
-        <v>62</v>
-      </c>
-      <c r="L9">
-        <v>75</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="8"/>
-        <v>DOP</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>365</v>
-      </c>
-      <c r="E10">
-        <v>79</v>
-      </c>
-      <c r="F10">
-        <v>75</v>
-      </c>
-      <c r="G10">
-        <v>70</v>
-      </c>
-      <c r="H10">
-        <v>71</v>
-      </c>
-      <c r="I10">
-        <v>53</v>
-      </c>
-      <c r="J10">
-        <v>95</v>
-      </c>
-      <c r="K10">
-        <v>80</v>
-      </c>
-      <c r="L10">
-        <v>60</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="8"/>
-        <v>ELT</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ref="P10" si="9">E10</f>
-        <v>79</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ref="Q10" si="10">F10</f>
-        <v>75</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ref="R10" si="11">G10</f>
-        <v>70</v>
-      </c>
-      <c r="S10">
-        <f t="shared" ref="S10" si="12">H10</f>
-        <v>71</v>
-      </c>
-      <c r="T10">
-        <f t="shared" ref="T10" si="13">I10</f>
-        <v>53</v>
-      </c>
-      <c r="U10">
-        <f t="shared" ref="U10" si="14">J10</f>
-        <v>95</v>
-      </c>
-      <c r="V10">
-        <f t="shared" ref="V10" si="15">K10</f>
-        <v>80</v>
-      </c>
-      <c r="W10">
-        <f t="shared" ref="W10" si="16">L10</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>360</v>
-      </c>
-      <c r="E11">
-        <v>79</v>
-      </c>
-      <c r="F11">
-        <v>75</v>
-      </c>
-      <c r="G11">
-        <v>70</v>
-      </c>
-      <c r="H11">
-        <v>66</v>
-      </c>
-      <c r="I11">
-        <v>95</v>
-      </c>
-      <c r="J11">
-        <v>70</v>
-      </c>
-      <c r="K11">
-        <v>90</v>
-      </c>
-      <c r="L11">
-        <v>90</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="8"/>
-        <v>ALC</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>356</v>
-      </c>
-      <c r="E12">
-        <v>80</v>
-      </c>
-      <c r="F12">
-        <v>71</v>
-      </c>
-      <c r="G12">
-        <v>76</v>
-      </c>
-      <c r="H12">
-        <v>79</v>
-      </c>
-      <c r="I12">
-        <v>70</v>
-      </c>
-      <c r="J12">
-        <v>59</v>
-      </c>
-      <c r="K12">
-        <v>80</v>
-      </c>
-      <c r="L12">
-        <v>60</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="8"/>
-        <v>JOJ</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ref="P12" si="17">E12</f>
-        <v>80</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ref="Q12" si="18">F12</f>
-        <v>71</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12" si="19">G12</f>
-        <v>76</v>
-      </c>
-      <c r="S12">
-        <f t="shared" ref="S12" si="20">H12</f>
-        <v>79</v>
-      </c>
-      <c r="T12">
-        <f t="shared" ref="T12" si="21">I12</f>
-        <v>70</v>
-      </c>
-      <c r="U12">
-        <f t="shared" ref="U12" si="22">J12</f>
-        <v>59</v>
-      </c>
-      <c r="V12">
-        <f t="shared" ref="V12" si="23">K12</f>
-        <v>80</v>
-      </c>
-      <c r="W12">
-        <f t="shared" ref="W12" si="24">L12</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>375</v>
-      </c>
-      <c r="E13">
-        <v>80</v>
-      </c>
-      <c r="F13">
-        <v>71</v>
-      </c>
-      <c r="G13">
-        <v>76</v>
-      </c>
-      <c r="H13">
-        <v>75</v>
-      </c>
-      <c r="I13">
-        <v>85</v>
-      </c>
-      <c r="J13">
-        <v>75</v>
-      </c>
-      <c r="K13">
-        <v>70</v>
-      </c>
-      <c r="L13">
-        <v>65</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="8"/>
-        <v>ZOA</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ref="P3:P21" si="25">E13</f>
-        <v>80</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ref="Q3:Q21" si="26">F13</f>
-        <v>71</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ref="R3:R21" si="27">G13</f>
-        <v>76</v>
-      </c>
-      <c r="S13">
-        <f t="shared" ref="S3:S21" si="28">H13</f>
-        <v>75</v>
-      </c>
-      <c r="T13">
-        <f t="shared" ref="T3:T21" si="29">I13</f>
-        <v>85</v>
-      </c>
-      <c r="U13">
-        <f t="shared" ref="U3:U21" si="30">J13</f>
-        <v>75</v>
-      </c>
-      <c r="V13">
-        <f t="shared" ref="V3:V21" si="31">K13</f>
-        <v>70</v>
-      </c>
-      <c r="W13">
-        <f t="shared" ref="W3:W21" si="32">L13</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>348</v>
-      </c>
-      <c r="E14">
-        <v>75</v>
-      </c>
-      <c r="F14">
-        <v>73</v>
-      </c>
-      <c r="G14">
-        <v>71</v>
-      </c>
-      <c r="H14">
-        <v>65</v>
-      </c>
-      <c r="I14">
-        <v>75</v>
-      </c>
-      <c r="J14">
-        <v>52</v>
-      </c>
-      <c r="K14">
-        <v>95</v>
-      </c>
-      <c r="L14">
-        <v>51</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="8"/>
-        <v>VAN</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="25"/>
-        <v>75</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="26"/>
-        <v>73</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="27"/>
-        <v>71</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="28"/>
-        <v>65</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="29"/>
-        <v>75</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="30"/>
-        <v>52</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="31"/>
-        <v>95</v>
-      </c>
-      <c r="W14">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>382</v>
-      </c>
-      <c r="E15">
-        <v>75</v>
-      </c>
-      <c r="F15">
-        <v>73</v>
-      </c>
-      <c r="G15">
-        <v>71</v>
-      </c>
-      <c r="H15">
-        <v>71</v>
-      </c>
-      <c r="I15">
-        <v>53</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15">
-        <v>50</v>
-      </c>
-      <c r="L15">
-        <v>90</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="8"/>
-        <v>ATH</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="25"/>
-        <v>75</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="26"/>
-        <v>73</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="27"/>
-        <v>71</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="28"/>
-        <v>71</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="29"/>
-        <v>53</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="30"/>
-        <v>50</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="31"/>
-        <v>50</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="32"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16">
-        <v>345</v>
-      </c>
-      <c r="E16">
-        <v>69</v>
-      </c>
-      <c r="F16">
-        <v>70</v>
-      </c>
-      <c r="G16">
-        <v>72</v>
-      </c>
-      <c r="H16">
-        <v>66</v>
-      </c>
-      <c r="I16">
-        <v>50</v>
-      </c>
-      <c r="J16">
-        <v>70</v>
-      </c>
-      <c r="K16">
-        <v>85</v>
-      </c>
-      <c r="L16">
-        <v>50</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="8"/>
-        <v>BAH</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="25"/>
-        <v>69</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="26"/>
-        <v>70</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="27"/>
-        <v>72</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="28"/>
-        <v>66</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="29"/>
-        <v>50</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="30"/>
-        <v>70</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="31"/>
-        <v>85</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="32"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17">
-        <v>375</v>
-      </c>
-      <c r="E17">
-        <v>69</v>
-      </c>
-      <c r="F17">
-        <v>70</v>
-      </c>
-      <c r="G17">
-        <v>72</v>
-      </c>
-      <c r="H17">
-        <v>71</v>
-      </c>
-      <c r="I17">
-        <v>55</v>
-      </c>
-      <c r="J17">
-        <v>70</v>
-      </c>
-      <c r="K17">
-        <v>70</v>
-      </c>
-      <c r="L17">
-        <v>75</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="8"/>
-        <v>MIN</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="25"/>
-        <v>69</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="26"/>
-        <v>70</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="27"/>
-        <v>72</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="28"/>
-        <v>71</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="29"/>
-        <v>55</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="30"/>
-        <v>70</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="31"/>
-        <v>70</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="32"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>378</v>
-      </c>
-      <c r="E18">
-        <v>75</v>
-      </c>
-      <c r="F18">
-        <v>72</v>
-      </c>
-      <c r="G18">
-        <v>78</v>
-      </c>
-      <c r="H18">
-        <v>61</v>
-      </c>
-      <c r="I18">
-        <v>70</v>
-      </c>
-      <c r="J18">
-        <v>75</v>
-      </c>
-      <c r="K18">
-        <v>70</v>
-      </c>
-      <c r="L18">
-        <v>70</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="8"/>
-        <v>SCH</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="25"/>
-        <v>75</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="26"/>
-        <v>72</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="27"/>
-        <v>78</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="28"/>
-        <v>61</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="29"/>
-        <v>70</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="30"/>
-        <v>75</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="31"/>
-        <v>70</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="32"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>366</v>
-      </c>
-      <c r="E19">
-        <v>75</v>
-      </c>
-      <c r="F19">
-        <v>72</v>
-      </c>
-      <c r="G19">
-        <v>78</v>
-      </c>
-      <c r="H19">
-        <v>67</v>
-      </c>
-      <c r="I19">
-        <v>70</v>
-      </c>
-      <c r="J19">
-        <v>50</v>
-      </c>
-      <c r="K19">
-        <v>70</v>
-      </c>
-      <c r="L19">
-        <v>70</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="8"/>
-        <v>BTZ</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="25"/>
-        <v>75</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="26"/>
-        <v>72</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="27"/>
-        <v>78</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="28"/>
-        <v>67</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="29"/>
-        <v>70</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="30"/>
-        <v>50</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="31"/>
-        <v>70</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="32"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20">
-        <v>355</v>
-      </c>
-      <c r="E20">
-        <v>73</v>
-      </c>
-      <c r="F20">
-        <v>71</v>
-      </c>
-      <c r="G20">
-        <v>70</v>
-      </c>
-      <c r="H20">
-        <v>70</v>
-      </c>
-      <c r="I20">
-        <v>54</v>
-      </c>
-      <c r="J20">
-        <v>70</v>
-      </c>
-      <c r="K20">
-        <v>87</v>
-      </c>
-      <c r="L20">
-        <v>50</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="8"/>
-        <v>RUA</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="25"/>
-        <v>73</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="26"/>
-        <v>71</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="27"/>
-        <v>70</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="28"/>
-        <v>70</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="29"/>
-        <v>54</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="30"/>
-        <v>70</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="31"/>
-        <v>87</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="32"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21">
-        <v>366</v>
-      </c>
-      <c r="E21">
-        <v>73</v>
-      </c>
-      <c r="F21">
-        <v>71</v>
-      </c>
-      <c r="G21">
-        <v>70</v>
-      </c>
-      <c r="H21">
-        <v>70</v>
-      </c>
-      <c r="I21">
-        <v>54</v>
-      </c>
-      <c r="J21">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>87</v>
-      </c>
-      <c r="L21">
-        <v>70</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="8"/>
-        <v>MED</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="25"/>
-        <v>73</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="26"/>
-        <v>71</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="27"/>
-        <v>70</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="28"/>
-        <v>70</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="29"/>
-        <v>54</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="30"/>
-        <v>50</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="31"/>
-        <v>87</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="32"/>
-        <v>70</v>
-      </c>
+      <c r="L42" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M42" t="s">
+        <v>94</v>
+      </c>
+      <c r="N42" t="s">
+        <v>105</v>
+      </c>
+      <c r="O42" t="str">
+        <f>C42</f>
+        <v>Symbol</v>
+      </c>
+      <c r="P42" t="str">
+        <f>E42</f>
+        <v>Accel</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" ref="Q42" si="27">F42</f>
+        <v>DragCoeff</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" ref="R42" si="28">G42</f>
+        <v>DownforceCoeff</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" ref="S42" si="29">H42</f>
+        <v>Cornering</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" ref="T42" si="30">I42</f>
+        <v>Overtake</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" ref="U42" si="31">J42</f>
+        <v>Consistency</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" ref="V42" si="32">K42</f>
+        <v>Defending</v>
+      </c>
+      <c r="W42" t="str">
+        <f>L42</f>
+        <v>Stamina</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pyRacing/driversAnalysis.xlsx
+++ b/pyRacing/driversAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madma\Documents\zDrugMaker\pyRacing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB61F9C6-3F2E-4B06-9E20-5E23D8E9A316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD926E0A-1212-4743-945D-A933D2E4B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D22FFC66-2795-49FC-94EC-23153A58B245}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16140" windowHeight="13935" xr2:uid="{D22FFC66-2795-49FC-94EC-23153A58B245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>Marta</t>
   </si>
@@ -354,6 +354,15 @@
   </si>
   <si>
     <t>DRIVR#</t>
+  </si>
+  <si>
+    <t>FDR</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Roosevelt</t>
   </si>
 </sst>
 </file>
@@ -884,6 +893,7 @@
         <c:axId val="401654863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
           <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1045,9 +1055,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$37</c:f>
+              <c:f>Sheet1!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VOV</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1097,16 +1110,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$37:$W$37</c:f>
+              <c:f>Sheet1!$P$3:$W$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B03-4F9E-B8EC-EC5A4502D3CA}"/>
+              <c16:uniqueId val="{00000000-4359-4955-B58D-F05FCE3D897F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1173,6 +1210,7 @@
         <c:axId val="401654863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
           <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2373,16 +2411,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>187298</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>385001</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>595513</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>221715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>86445</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1600</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>494660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>232921</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2409,23 +2447,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>557892</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>258535</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>457039</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>269741</xdr:rowOff>
+      <xdr:colOff>511469</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD02441-E52E-44F0-B3D3-6DF49D0C40C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8874C8-FE8C-468D-81CF-777E99B85AA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2806,7 @@
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4143,7 +4181,7 @@
         <v>76</v>
       </c>
       <c r="D22" s="22">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E22" s="23">
         <v>71</v>
@@ -4176,39 +4214,39 @@
         <v>11</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="O22" si="27">C22</f>
         <v>PUT</v>
       </c>
       <c r="P22">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="P22" si="28">E22</f>
         <v>71</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="Q22" si="29">F22</f>
         <v>65</v>
       </c>
       <c r="R22">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="R22" si="30">G22</f>
         <v>78</v>
       </c>
       <c r="S22">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="S22" si="31">H22</f>
         <v>55</v>
       </c>
       <c r="T22">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="T22" si="32">I22</f>
         <v>70</v>
       </c>
       <c r="U22">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="U22" si="33">J22</f>
         <v>62</v>
       </c>
       <c r="V22">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="V22" si="34">K22</f>
         <v>66</v>
       </c>
       <c r="W22">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="W22" si="35">L22</f>
         <v>80</v>
       </c>
     </row>
@@ -4293,19 +4331,81 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="17"/>
+      <c r="A24" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="22">
+        <v>368</v>
+      </c>
+      <c r="E24" s="23">
+        <v>71</v>
+      </c>
+      <c r="F24" s="23">
+        <v>65</v>
+      </c>
+      <c r="G24" s="23">
+        <v>78</v>
+      </c>
+      <c r="H24" s="22">
+        <v>78</v>
+      </c>
+      <c r="I24" s="22">
+        <v>75</v>
+      </c>
+      <c r="J24" s="22">
+        <v>70</v>
+      </c>
+      <c r="K24" s="22">
+        <v>71</v>
+      </c>
+      <c r="L24" s="29">
+        <v>70</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="18"/>
+        <v>FDR</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>71</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="23"/>
+        <v>75</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="25"/>
+        <v>71</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
@@ -5060,7 +5160,7 @@
         <v>65</v>
       </c>
       <c r="G38" s="23">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H38" s="22">
         <v>61</v>
@@ -5097,7 +5197,7 @@
       </c>
       <c r="R38">
         <f t="shared" si="21"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S38">
         <f t="shared" si="22"/>
@@ -5131,7 +5231,7 @@
         <v>93</v>
       </c>
       <c r="D39" s="22">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E39" s="23">
         <v>71</v>
@@ -5140,7 +5240,7 @@
         <v>65</v>
       </c>
       <c r="G39" s="23">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H39" s="22">
         <v>79</v>
@@ -5177,7 +5277,7 @@
       </c>
       <c r="R39">
         <f t="shared" si="21"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S39">
         <f t="shared" si="22"/>
@@ -5220,7 +5320,7 @@
         <v>65</v>
       </c>
       <c r="G40" s="23">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H40" s="22">
         <v>78</v>
@@ -5254,7 +5354,7 @@
       </c>
       <c r="R40">
         <f t="shared" si="21"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S40">
         <f t="shared" si="22"/>
@@ -5346,27 +5446,27 @@
         <v>Accel</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" ref="Q42" si="27">F42</f>
+        <f t="shared" ref="Q42" si="36">F42</f>
         <v>DragCoeff</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" ref="R42" si="28">G42</f>
+        <f t="shared" ref="R42" si="37">G42</f>
         <v>DownforceCoeff</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" ref="S42" si="29">H42</f>
+        <f t="shared" ref="S42" si="38">H42</f>
         <v>Cornering</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" ref="T42" si="30">I42</f>
+        <f t="shared" ref="T42" si="39">I42</f>
         <v>Overtake</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" ref="U42" si="31">J42</f>
+        <f t="shared" ref="U42" si="40">J42</f>
         <v>Consistency</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" ref="V42" si="32">K42</f>
+        <f t="shared" ref="V42" si="41">K42</f>
         <v>Defending</v>
       </c>
       <c r="W42" t="str">

--- a/pyRacing/driversAnalysis.xlsx
+++ b/pyRacing/driversAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madma\Documents\zDrugMaker\pyRacing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD926E0A-1212-4743-945D-A933D2E4B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B846997-A52E-44B8-BB6C-AF44DB928034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16140" windowHeight="13935" xr2:uid="{D22FFC66-2795-49FC-94EC-23153A58B245}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{D22FFC66-2795-49FC-94EC-23153A58B245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t>Marta</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>Roosevelt</t>
+  </si>
+  <si>
+    <t>Mista</t>
+  </si>
+  <si>
+    <t>Stinkybutt</t>
+  </si>
+  <si>
+    <t>BUT</t>
   </si>
 </sst>
 </file>
@@ -2805,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A66D4-2B70-4242-B1E5-FED50C7B69CF}">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,35 +3207,35 @@
         <v>SPD</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P18" si="10">E6</f>
+        <f t="shared" ref="P6:P8" si="10">E6</f>
         <v>73</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q18" si="11">F6</f>
+        <f t="shared" ref="Q6:Q8" si="11">F6</f>
         <v>78</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R18" si="12">G6</f>
+        <f t="shared" ref="R6:R8" si="12">G6</f>
         <v>70</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S18" si="13">H6</f>
+        <f t="shared" ref="S6:S8" si="13">H6</f>
         <v>60</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6:T18" si="14">I6</f>
+        <f t="shared" ref="T6:T8" si="14">I6</f>
         <v>80</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U18" si="15">J6</f>
+        <f t="shared" ref="U6:U8" si="15">J6</f>
         <v>51</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:V18" si="16">K6</f>
+        <f t="shared" ref="V6:V8" si="16">K6</f>
         <v>70</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W18" si="17">L6</f>
+        <f t="shared" ref="W6:W8" si="17">L6</f>
         <v>70</v>
       </c>
     </row>
@@ -3450,35 +3459,35 @@
         <v>SHT</v>
       </c>
       <c r="P10">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="P10:P11" si="18">E10</f>
         <v>74</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Q10:Q11" si="19">F10</f>
         <v>62</v>
       </c>
       <c r="R10">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="R10:R11" si="20">G10</f>
         <v>75</v>
       </c>
       <c r="S10">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="S10:S11" si="21">H10</f>
         <v>75</v>
       </c>
       <c r="T10">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="T10:T11" si="22">I10</f>
         <v>54</v>
       </c>
       <c r="U10">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="U10:U11" si="23">J10</f>
         <v>85</v>
       </c>
       <c r="V10">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="V10:V11" si="24">K10</f>
         <v>67</v>
       </c>
       <c r="W10">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="W10:W11" si="25">L10</f>
         <v>75</v>
       </c>
     </row>
@@ -3530,35 +3539,35 @@
         <v>DOP</v>
       </c>
       <c r="P11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>74</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="R11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="S11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>73</v>
       </c>
       <c r="T11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="U11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>53</v>
       </c>
       <c r="V11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>62</v>
       </c>
       <c r="W11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
     </row>
@@ -3622,35 +3631,35 @@
         <v>NDR</v>
       </c>
       <c r="P13">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="P13:P19" si="26">E13</f>
         <v>74</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Q13:Q19" si="27">F13</f>
         <v>62</v>
       </c>
       <c r="R13">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="R13:R19" si="28">G13</f>
         <v>75</v>
       </c>
       <c r="S13">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="S13:S19" si="29">H13</f>
         <v>70</v>
       </c>
       <c r="T13">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="T13:T19" si="30">I13</f>
         <v>68</v>
       </c>
       <c r="U13">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="U13:U19" si="31">J13</f>
         <v>60</v>
       </c>
       <c r="V13">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="V13:V19" si="32">K13</f>
         <v>58</v>
       </c>
       <c r="W13">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="W13:W19" si="33">L13</f>
         <v>79</v>
       </c>
     </row>
@@ -3702,35 +3711,35 @@
         <v>ELT</v>
       </c>
       <c r="P14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="R14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>70</v>
       </c>
       <c r="S14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>71</v>
       </c>
       <c r="T14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>53</v>
       </c>
       <c r="U14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>95</v>
       </c>
       <c r="V14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>80</v>
       </c>
       <c r="W14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>60</v>
       </c>
     </row>
@@ -3782,35 +3791,35 @@
         <v>ATH</v>
       </c>
       <c r="P15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="R15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>70</v>
       </c>
       <c r="S15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>71</v>
       </c>
       <c r="T15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>53</v>
       </c>
       <c r="U15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="V15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="W15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>90</v>
       </c>
     </row>
@@ -3859,35 +3868,35 @@
         <v>ALC</v>
       </c>
       <c r="P16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="R16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>70</v>
       </c>
       <c r="S16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>66</v>
       </c>
       <c r="T16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>95</v>
       </c>
       <c r="U16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>70</v>
       </c>
       <c r="V16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>90</v>
       </c>
       <c r="W16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>90</v>
       </c>
     </row>
@@ -3936,35 +3945,35 @@
         <v>VAN</v>
       </c>
       <c r="P17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="R17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>70</v>
       </c>
       <c r="S17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>65</v>
       </c>
       <c r="T17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="U17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
       <c r="V17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>95</v>
       </c>
       <c r="W17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>51</v>
       </c>
     </row>
@@ -4016,35 +4025,35 @@
         <v>JOJ</v>
       </c>
       <c r="P18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>71</v>
       </c>
       <c r="R18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>76</v>
       </c>
       <c r="S18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>79</v>
       </c>
       <c r="T18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="U18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>59</v>
       </c>
       <c r="V18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>80</v>
       </c>
       <c r="W18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>60</v>
       </c>
     </row>
@@ -4092,39 +4101,39 @@
         <v>10</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" ref="O19:O40" si="18">C19</f>
+        <f t="shared" ref="O19:O40" si="34">C19</f>
         <v>ZOA</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P40" si="19">E19</f>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q40" si="20">F19</f>
+        <f t="shared" si="27"/>
         <v>71</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:R40" si="21">G19</f>
+        <f t="shared" si="28"/>
         <v>76</v>
       </c>
       <c r="S19">
-        <f t="shared" ref="S19:S40" si="22">H19</f>
+        <f t="shared" si="29"/>
         <v>75</v>
       </c>
       <c r="T19">
-        <f t="shared" ref="T19:T40" si="23">I19</f>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="U19">
-        <f t="shared" ref="U19:U40" si="24">J19</f>
+        <f t="shared" si="31"/>
         <v>72</v>
       </c>
       <c r="V19">
-        <f t="shared" ref="V19:V40" si="25">K19</f>
+        <f t="shared" si="32"/>
         <v>70</v>
       </c>
       <c r="W19">
-        <f t="shared" ref="W19:W40" si="26">L19</f>
+        <f t="shared" si="33"/>
         <v>65</v>
       </c>
     </row>
@@ -4214,39 +4223,39 @@
         <v>11</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" ref="O22" si="27">C22</f>
+        <f t="shared" ref="O22" si="35">C22</f>
         <v>PUT</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22" si="28">E22</f>
+        <f t="shared" ref="P22:P24" si="36">E22</f>
         <v>71</v>
       </c>
       <c r="Q22">
-        <f t="shared" ref="Q22" si="29">F22</f>
+        <f t="shared" ref="Q22:Q24" si="37">F22</f>
         <v>65</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22" si="30">G22</f>
+        <f t="shared" ref="R22:R24" si="38">G22</f>
         <v>78</v>
       </c>
       <c r="S22">
-        <f t="shared" ref="S22" si="31">H22</f>
+        <f t="shared" ref="S22:S24" si="39">H22</f>
         <v>55</v>
       </c>
       <c r="T22">
-        <f t="shared" ref="T22" si="32">I22</f>
+        <f t="shared" ref="T22:T24" si="40">I22</f>
         <v>70</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22" si="33">J22</f>
+        <f t="shared" ref="U22:U24" si="41">J22</f>
         <v>62</v>
       </c>
       <c r="V22">
-        <f t="shared" ref="V22" si="34">K22</f>
+        <f t="shared" ref="V22:V24" si="42">K22</f>
         <v>66</v>
       </c>
       <c r="W22">
-        <f t="shared" ref="W22" si="35">L22</f>
+        <f t="shared" ref="W22:W24" si="43">L22</f>
         <v>80</v>
       </c>
     </row>
@@ -4294,39 +4303,39 @@
         <v>12</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>DON</v>
       </c>
       <c r="P23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>71</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>65</v>
       </c>
       <c r="R23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>78</v>
       </c>
       <c r="S23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>75</v>
       </c>
       <c r="T23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>95</v>
       </c>
       <c r="U23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>72</v>
       </c>
       <c r="V23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>70</v>
       </c>
       <c r="W23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>75</v>
       </c>
     </row>
@@ -4371,39 +4380,39 @@
         <v>99</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>FDR</v>
       </c>
       <c r="P24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>71</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>65</v>
       </c>
       <c r="R24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>78</v>
       </c>
       <c r="S24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>78</v>
       </c>
       <c r="T24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>75</v>
       </c>
       <c r="U24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>70</v>
       </c>
       <c r="V24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>71</v>
       </c>
       <c r="W24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>70</v>
       </c>
     </row>
@@ -4466,39 +4475,39 @@
         <v>13</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>BAH</v>
       </c>
       <c r="P26">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="P26:P32" si="44">E26</f>
         <v>69</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="Q26:Q32" si="45">F26</f>
         <v>70</v>
       </c>
       <c r="R26">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="R26:R32" si="46">G26</f>
         <v>72</v>
       </c>
       <c r="S26">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="S26:S32" si="47">H26</f>
         <v>66</v>
       </c>
       <c r="T26">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="T26:T32" si="48">I26</f>
         <v>50</v>
       </c>
       <c r="U26">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="U26:U32" si="49">J26</f>
         <v>70</v>
       </c>
       <c r="V26">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="V26:V32" si="50">K26</f>
         <v>85</v>
       </c>
       <c r="W26">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="W26:W32" si="51">L26</f>
         <v>50</v>
       </c>
     </row>
@@ -4516,13 +4525,13 @@
         <v>371</v>
       </c>
       <c r="E27" s="23">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F27" s="23">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G27" s="23">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H27" s="22">
         <v>71</v>
@@ -4546,47 +4555,55 @@
         <v>14</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>ADR</v>
       </c>
       <c r="P27">
-        <f t="shared" si="19"/>
-        <v>74</v>
+        <f t="shared" si="44"/>
+        <v>69</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="20"/>
-        <v>62</v>
+        <f t="shared" si="45"/>
+        <v>70</v>
       </c>
       <c r="R27">
-        <f t="shared" si="21"/>
-        <v>75</v>
+        <f t="shared" si="46"/>
+        <v>72</v>
       </c>
       <c r="S27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>71</v>
       </c>
       <c r="T27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>72</v>
       </c>
       <c r="U27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>61</v>
       </c>
       <c r="V27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>71</v>
       </c>
       <c r="W27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="51"/>
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="22">
+        <v>368</v>
+      </c>
       <c r="E28" s="23">
         <v>69</v>
       </c>
@@ -4602,6 +4619,42 @@
       <c r="K28" s="22"/>
       <c r="L28" s="29"/>
       <c r="M28" s="18"/>
+      <c r="O28" t="str">
+        <f t="shared" si="34"/>
+        <v>BUT</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28" si="52">E28</f>
+        <v>69</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28" si="53">F28</f>
+        <v>70</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ref="R28" si="54">G28</f>
+        <v>72</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28" si="55">H28</f>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" ref="T28" si="56">I28</f>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ref="U28" si="57">J28</f>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ref="V28" si="58">K28</f>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" ref="W28" si="59">L28</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
@@ -4668,39 +4721,39 @@
         <v>15</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>SCH</v>
       </c>
       <c r="P30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>75</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>72</v>
       </c>
       <c r="R30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>78</v>
       </c>
       <c r="S30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>61</v>
       </c>
       <c r="T30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>70</v>
       </c>
       <c r="U30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>75</v>
       </c>
       <c r="V30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>70</v>
       </c>
       <c r="W30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="51"/>
         <v>70</v>
       </c>
     </row>
@@ -4748,39 +4801,39 @@
         <v>16</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>BTZ</v>
       </c>
       <c r="P31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>75</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>72</v>
       </c>
       <c r="R31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>78</v>
       </c>
       <c r="S31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>67</v>
       </c>
       <c r="T31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>70</v>
       </c>
       <c r="U31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>50</v>
       </c>
       <c r="V31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>70</v>
       </c>
       <c r="W31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="51"/>
         <v>70</v>
       </c>
     </row>
@@ -4825,39 +4878,39 @@
         <v>103</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>SCN</v>
       </c>
       <c r="P32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>75</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>72</v>
       </c>
       <c r="R32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>78</v>
       </c>
       <c r="S32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>70</v>
       </c>
       <c r="T32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>60</v>
       </c>
       <c r="U32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>60</v>
       </c>
       <c r="V32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>78</v>
       </c>
       <c r="W32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="51"/>
         <v>78</v>
       </c>
     </row>
@@ -4926,39 +4979,39 @@
         <v>17</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>RUA</v>
       </c>
       <c r="P34">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="P34:P36" si="60">E34</f>
         <v>73</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="Q34:Q36" si="61">F34</f>
         <v>71</v>
       </c>
       <c r="R34">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="R34:R36" si="62">G34</f>
         <v>70</v>
       </c>
       <c r="S34">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="S34:S36" si="63">H34</f>
         <v>70</v>
       </c>
       <c r="T34">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="T34:T36" si="64">I34</f>
         <v>54</v>
       </c>
       <c r="U34">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="U34:U36" si="65">J34</f>
         <v>70</v>
       </c>
       <c r="V34">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="V34:V36" si="66">K34</f>
         <v>87</v>
       </c>
       <c r="W34">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="W34:W36" si="67">L34</f>
         <v>50</v>
       </c>
     </row>
@@ -5006,39 +5059,39 @@
         <v>18</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>MED</v>
       </c>
       <c r="P35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="60"/>
         <v>73</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="61"/>
         <v>71</v>
       </c>
       <c r="R35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="62"/>
         <v>70</v>
       </c>
       <c r="S35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="63"/>
         <v>70</v>
       </c>
       <c r="T35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="64"/>
         <v>54</v>
       </c>
       <c r="U35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="65"/>
         <v>50</v>
       </c>
       <c r="V35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="66"/>
         <v>87</v>
       </c>
       <c r="W35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="67"/>
         <v>70</v>
       </c>
     </row>
@@ -5083,39 +5136,39 @@
         <v>102</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>MIP</v>
       </c>
       <c r="P36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="60"/>
         <v>73</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="61"/>
         <v>71</v>
       </c>
       <c r="R36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="62"/>
         <v>70</v>
       </c>
       <c r="S36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="63"/>
         <v>68</v>
       </c>
       <c r="T36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="64"/>
         <v>72</v>
       </c>
       <c r="U36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="65"/>
         <v>65</v>
       </c>
       <c r="V36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="66"/>
         <v>70</v>
       </c>
       <c r="W36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="67"/>
         <v>75</v>
       </c>
     </row>
@@ -5184,39 +5237,39 @@
         <v>19</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>TON</v>
       </c>
       <c r="P38">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="P38:P40" si="68">E38</f>
         <v>71</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="Q38:Q40" si="69">F38</f>
         <v>65</v>
       </c>
       <c r="R38">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="R38:R40" si="70">G38</f>
         <v>74</v>
       </c>
       <c r="S38">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="S38:S40" si="71">H38</f>
         <v>61</v>
       </c>
       <c r="T38">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="T38:T40" si="72">I38</f>
         <v>55</v>
       </c>
       <c r="U38">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="U38:U40" si="73">J38</f>
         <v>66</v>
       </c>
       <c r="V38">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="V38:V40" si="74">K38</f>
         <v>70</v>
       </c>
       <c r="W38">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="W38:W40" si="75">L38</f>
         <v>50</v>
       </c>
     </row>
@@ -5264,39 +5317,39 @@
         <v>20</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>LUK</v>
       </c>
       <c r="P39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="68"/>
         <v>71</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="69"/>
         <v>65</v>
       </c>
       <c r="R39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="70"/>
         <v>74</v>
       </c>
       <c r="S39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="71"/>
         <v>79</v>
       </c>
       <c r="T39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="72"/>
         <v>75</v>
       </c>
       <c r="U39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="73"/>
         <v>80</v>
       </c>
       <c r="V39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="74"/>
         <v>55</v>
       </c>
       <c r="W39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="75"/>
         <v>50</v>
       </c>
     </row>
@@ -5341,39 +5394,39 @@
         <v>104</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>BRN</v>
       </c>
       <c r="P40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="68"/>
         <v>71</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="69"/>
         <v>65</v>
       </c>
       <c r="R40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="70"/>
         <v>74</v>
       </c>
       <c r="S40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="71"/>
         <v>78</v>
       </c>
       <c r="T40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="72"/>
         <v>68</v>
       </c>
       <c r="U40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="73"/>
         <v>68</v>
       </c>
       <c r="V40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="74"/>
         <v>68</v>
       </c>
       <c r="W40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="75"/>
         <v>70</v>
       </c>
     </row>
@@ -5446,27 +5499,27 @@
         <v>Accel</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" ref="Q42" si="36">F42</f>
+        <f t="shared" ref="Q42" si="76">F42</f>
         <v>DragCoeff</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" ref="R42" si="37">G42</f>
+        <f t="shared" ref="R42" si="77">G42</f>
         <v>DownforceCoeff</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" ref="S42" si="38">H42</f>
+        <f t="shared" ref="S42" si="78">H42</f>
         <v>Cornering</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" ref="T42" si="39">I42</f>
+        <f t="shared" ref="T42" si="79">I42</f>
         <v>Overtake</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" ref="U42" si="40">J42</f>
+        <f t="shared" ref="U42" si="80">J42</f>
         <v>Consistency</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" ref="V42" si="41">K42</f>
+        <f t="shared" ref="V42" si="81">K42</f>
         <v>Defending</v>
       </c>
       <c r="W42" t="str">
